--- a/src/Sorce/balanceKR.xlsx
+++ b/src/Sorce/balanceKR.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>Формирвоание отчета</t>
   </si>
   <si>
-    <t>Период: на 17.01.2025 10:45:12</t>
+    <t>Период: на 20.01.2025 10:55:12</t>
   </si>
   <si>
     <t>Показатели: Свободный остаток(В ед. хранения);</t>
@@ -191,15 +191,39 @@
     <t>Батон ROSHEN "Double peanuts" мол-шок з арахісом та арахісовим кремом ВКФ 39г /180шт</t>
   </si>
   <si>
+    <t>Батон ROSHEN "Double peanuts" мол-шок з арахісом та арахісовим кремом ВКФ 39г /180шт ДС</t>
+  </si>
+  <si>
     <t>БАТОН ROSHEN з начинкою 43г/180</t>
   </si>
   <si>
+    <t>Батон ROSHEN з начинкою ВКФ 43г /180шт АКЦІЯ</t>
+  </si>
+  <si>
+    <t>Батон ROSHEN з начинкою ВКФ 43г /180шт ДС</t>
+  </si>
+  <si>
+    <t>Батон ROSHEN мол-шок з карамельною начинкою ВКФ 40г /180шт ДС</t>
+  </si>
+  <si>
     <t>Батон ROSHEN мол-шок з кокосом та мигдалем ВКФ 38г /180шт</t>
   </si>
   <si>
+    <t>Батон ROSHEN мол-шок з кокосом та мигдалем ВКФ 38г /180шт ДС</t>
+  </si>
+  <si>
     <t>Батон ROSHEN молочно-шоколадний з арахісовою начинкою ВКФ 38г /180шт</t>
   </si>
   <si>
+    <t>Батон ROSHEN молочно-шоколадний з арахісовою начинкою ВКФ 38г /180шт ДС</t>
+  </si>
+  <si>
+    <t>Батон ROSHEN молочно-шоколадний з начинкою крем-брюле ВКФ 43г /180шт ДС</t>
+  </si>
+  <si>
+    <t>Батон ROSHEN молочно-шоколадний з начинкою крем-брюле ВКФ 43г/180 шт АКЦІЯ</t>
+  </si>
+  <si>
     <t>Батон мол-шок карамель 40г/180/30</t>
   </si>
   <si>
@@ -227,9 +251,6 @@
     <t>РУЛЕТ Золотий ключик ВКФ 180г /14шт АКЦІЯ</t>
   </si>
   <si>
-    <t>РУЛЕТ П'янка вишня ВКФ 180г /14шт</t>
-  </si>
-  <si>
     <t>РУЛЕТ Празький ВКФ 180г /14шт</t>
   </si>
   <si>
@@ -362,6 +383,9 @@
     <t>Mintex+ Berry зі смаком лісових ягід та ментолу ВКФ 140г /15шт</t>
   </si>
   <si>
+    <t>Mintex+ Lemon зі смаком лимону та ментолу ВКФ 140г /15шт</t>
+  </si>
+  <si>
     <t>Mintex+ зі смаком м'яти ВКФ 140г /15шт</t>
   </si>
   <si>
@@ -507,6 +531,9 @@
   </si>
   <si>
     <t>Рошен евкаліпт-ментол РЦ 200г /12шт</t>
+  </si>
+  <si>
+    <t>Шалена бджілка ВКФ 200г /12шт</t>
   </si>
   <si>
     <t>КАРАМЕЛЬ ВАГОВА</t>
@@ -1325,7 +1352,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false"/>
   </sheetPr>
-  <dimension ref="C354"/>
+  <dimension ref="C363"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1401,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>324523</v>
+        <v>312303</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true" outlineLevel="1">
@@ -1409,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>42733</v>
+        <v>32166</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true" outlineLevel="2">
@@ -1417,15 +1444,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>5304</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="3">
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="n">
-        <v>1216</v>
+      <c r="C15" s="11" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="3">
@@ -1433,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>1159</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="3">
@@ -1441,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="n">
-        <v>459</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true" outlineLevel="3">
@@ -1449,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="n">
-        <v>587</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="3">
@@ -1457,15 +1484,15 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="n">
-        <v>734</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="3">
       <c r="B20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="16" t="n">
-        <v>1149</v>
+      <c r="C20" s="11" t="n">
+        <v>838</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="2">
@@ -1473,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>10884</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="3">
@@ -1481,15 +1508,15 @@
         <v>21</v>
       </c>
       <c r="C22" s="11" t="n">
-        <v>860</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="3">
       <c r="B23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="16" t="n">
-        <v>3629</v>
+      <c r="C23" s="11" t="n">
+        <v>805</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true" outlineLevel="3">
@@ -1497,15 +1524,15 @@
         <v>23</v>
       </c>
       <c r="C24" s="16" t="n">
-        <v>3513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true" outlineLevel="3">
       <c r="B25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="16" t="n">
-        <v>1488</v>
+      <c r="C25" s="11" t="n">
+        <v>786</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="3">
@@ -1521,7 +1548,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>10461</v>
+        <v>9957</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="3">
@@ -1529,7 +1556,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="11" t="n">
-        <v>423</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="3">
@@ -1537,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="16" t="n">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="3">
@@ -1545,7 +1572,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="16" t="n">
-        <v>1895</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="3">
@@ -1561,7 +1588,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="11" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="3">
@@ -1569,7 +1596,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="16" t="n">
-        <v>1951</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="3">
@@ -1577,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="11" t="n">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="3">
@@ -1585,7 +1612,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="11" t="n">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="3">
@@ -1593,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true" outlineLevel="3">
@@ -1601,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>614</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true" outlineLevel="3">
@@ -1609,7 +1636,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="3">
@@ -1617,7 +1644,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>421</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="3">
@@ -1625,7 +1652,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="16" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="2">
@@ -1633,7 +1660,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="12" t="n">
-        <v>16084</v>
+        <v>13361</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true" outlineLevel="3">
@@ -1641,7 +1668,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="11" t="n">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="3">
@@ -1649,7 +1676,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="11" t="n">
-        <v>308</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="3">
@@ -1665,7 +1692,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="11" t="n">
-        <v>948</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="3">
@@ -1673,7 +1700,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="16" t="n">
-        <v>2084</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="3">
@@ -1681,7 +1708,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="11" t="n">
-        <v>360</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true" outlineLevel="3">
@@ -1689,7 +1716,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>628</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true" outlineLevel="3">
@@ -1697,7 +1724,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="11" t="n">
-        <v>950</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="3">
@@ -1705,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="11" t="n">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="3">
@@ -1713,7 +1740,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="16" t="n">
-        <v>3179</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="52" ht="11" customHeight="true" outlineLevel="3">
@@ -1721,7 +1748,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="16" t="n">
-        <v>5376</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="3">
@@ -1729,7 +1756,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="11" t="n">
-        <v>376</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="3">
@@ -1737,7 +1764,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="11" t="n">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
@@ -1745,7 +1772,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="12" t="n">
-        <v>281790</v>
+        <v>280137</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="2">
@@ -1753,7 +1780,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="12" t="n">
-        <v>86950</v>
+        <v>88740</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="true" outlineLevel="3">
@@ -1761,31 +1788,31 @@
         <v>56</v>
       </c>
       <c r="C57" s="16" t="n">
-        <v>24071</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true" outlineLevel="3">
+        <v>20641</v>
+      </c>
+    </row>
+    <row r="58" ht="22" customHeight="true" outlineLevel="3">
       <c r="B58" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="16" t="n">
-        <v>3834</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="3">
       <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="16" t="n">
-        <v>19697</v>
-      </c>
-    </row>
-    <row r="60" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C59" s="11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true" outlineLevel="3">
       <c r="B60" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="16" t="n">
-        <v>19983</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="3">
@@ -1793,87 +1820,87 @@
         <v>60</v>
       </c>
       <c r="C61" s="16" t="n">
-        <v>9935</v>
-      </c>
-    </row>
-    <row r="62" ht="11" customHeight="true" outlineLevel="3">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true" outlineLevel="3">
       <c r="B62" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="16" t="n">
-        <v>9430</v>
-      </c>
-    </row>
-    <row r="63" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B63" s="14" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="63" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B63" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="12" t="n">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="64" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C63" s="16" t="n">
+        <v>16217</v>
+      </c>
+    </row>
+    <row r="64" ht="22" customHeight="true" outlineLevel="3">
       <c r="B64" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="11" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C64" s="16" t="n">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="65" ht="22" customHeight="true" outlineLevel="3">
       <c r="B65" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C65" s="16" t="n">
+        <v>14743</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true" outlineLevel="3">
       <c r="B66" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="11" t="n">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C66" s="16" t="n">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true" outlineLevel="3">
       <c r="B67" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="11" t="n">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C67" s="16" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="68" ht="22" customHeight="true" outlineLevel="3">
       <c r="B68" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="11" t="n">
-        <v>583</v>
+      <c r="C68" s="16" t="n">
+        <v>2880</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="3">
       <c r="B69" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="11" t="n">
-        <v>142</v>
+      <c r="C69" s="16" t="n">
+        <v>4715</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="3">
       <c r="B70" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="11" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B71" s="15" t="s">
+      <c r="C70" s="16" t="n">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B71" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="11" t="n">
-        <v>164</v>
+      <c r="C71" s="12" t="n">
+        <v>2159</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="3">
@@ -1881,7 +1908,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="11" t="n">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="3">
@@ -1889,7 +1916,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="11" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="3">
@@ -1897,15 +1924,15 @@
         <v>73</v>
       </c>
       <c r="C74" s="11" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B75" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B75" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="12" t="n">
-        <v>15176</v>
+      <c r="C75" s="11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true" outlineLevel="3">
@@ -1913,7 +1940,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="11" t="n">
-        <v>147</v>
+        <v>548</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="3">
@@ -1921,7 +1948,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="11" t="n">
-        <v>308</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="3">
@@ -1929,7 +1956,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="11" t="n">
-        <v>21</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="3">
@@ -1937,7 +1964,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="11" t="n">
-        <v>28</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="3">
@@ -1945,7 +1972,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="11" t="n">
-        <v>265</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="3">
@@ -1953,15 +1980,15 @@
         <v>80</v>
       </c>
       <c r="C81" s="11" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B82" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B82" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="16" t="n">
-        <v>4978</v>
+      <c r="C82" s="12" t="n">
+        <v>14913</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="3">
@@ -1969,15 +1996,15 @@
         <v>82</v>
       </c>
       <c r="C83" s="11" t="n">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="3">
       <c r="B84" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="16" t="n">
-        <v>3075</v>
+      <c r="C84" s="11" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="3">
@@ -1985,15 +2012,15 @@
         <v>84</v>
       </c>
       <c r="C85" s="11" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="3">
       <c r="B86" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="16" t="n">
-        <v>3304</v>
+      <c r="C86" s="11" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="3">
@@ -2001,7 +2028,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="11" t="n">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="3">
@@ -2009,15 +2036,15 @@
         <v>87</v>
       </c>
       <c r="C88" s="11" t="n">
-        <v>28</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="3">
       <c r="B89" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="11" t="n">
-        <v>156</v>
+      <c r="C89" s="16" t="n">
+        <v>4878</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="3">
@@ -2025,15 +2052,15 @@
         <v>89</v>
       </c>
       <c r="C90" s="11" t="n">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="3">
       <c r="B91" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="11" t="n">
-        <v>26</v>
+      <c r="C91" s="16" t="n">
+        <v>2750</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="3">
@@ -2041,15 +2068,15 @@
         <v>91</v>
       </c>
       <c r="C92" s="11" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="3">
       <c r="B93" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="11" t="n">
-        <v>176</v>
+      <c r="C93" s="16" t="n">
+        <v>2854</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="3">
@@ -2057,7 +2084,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="11" t="n">
-        <v>365</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="3">
@@ -2065,7 +2092,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="11" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="3">
@@ -2073,7 +2100,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="11" t="n">
-        <v>243</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="3">
@@ -2081,7 +2108,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="11" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="3">
@@ -2089,7 +2116,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="11" t="n">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="3">
@@ -2097,7 +2124,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="11" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="3">
@@ -2105,7 +2132,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="11" t="n">
-        <v>321</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="3">
@@ -2113,7 +2140,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="11" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="3">
@@ -2121,7 +2148,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="3">
@@ -2129,7 +2156,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="11" t="n">
-        <v>258</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="3">
@@ -2137,7 +2164,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="11" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="3">
@@ -2145,7 +2172,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="11" t="n">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="3">
@@ -2153,15 +2180,15 @@
         <v>105</v>
       </c>
       <c r="C106" s="11" t="n">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B107" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B107" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="12" t="n">
-        <v>27182</v>
+      <c r="C107" s="11" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="3">
@@ -2169,7 +2196,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="n">
-        <v>319</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="3">
@@ -2177,7 +2204,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="11" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="3">
@@ -2185,7 +2212,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="11" t="n">
-        <v>240</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="3">
@@ -2193,7 +2220,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="n">
-        <v>207</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="3">
@@ -2201,7 +2228,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="n">
-        <v>501</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="3">
@@ -2209,15 +2236,15 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B114" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B114" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="11" t="n">
-        <v>142</v>
+      <c r="C114" s="12" t="n">
+        <v>31974</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="3">
@@ -2225,7 +2252,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="n">
-        <v>96</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="3">
@@ -2233,23 +2260,23 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="n">
-        <v>375</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="3">
       <c r="B117" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="16" t="n">
-        <v>1070</v>
+      <c r="C117" s="11" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="3">
       <c r="B118" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="16" t="n">
-        <v>1070</v>
+      <c r="C118" s="11" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="3">
@@ -2257,15 +2284,15 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="n">
-        <v>364</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="3">
       <c r="B120" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="16" t="n">
-        <v>1262</v>
+      <c r="C120" s="11" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="3">
@@ -2273,7 +2300,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="n">
-        <v>914</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="3">
@@ -2281,7 +2308,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="n">
-        <v>300</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="3">
@@ -2289,7 +2316,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="n">
-        <v>914</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="3">
@@ -2297,23 +2324,23 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="n">
-        <v>380</v>
+        <v>819</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="3">
       <c r="B125" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="11" t="n">
-        <v>312</v>
+      <c r="C125" s="16" t="n">
+        <v>1032</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="3">
       <c r="B126" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="11" t="n">
-        <v>390</v>
+      <c r="C126" s="16" t="n">
+        <v>1032</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="3">
@@ -2321,15 +2348,15 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>468</v>
+        <v>808</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="3">
       <c r="B128" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="11" t="n">
-        <v>261</v>
+      <c r="C128" s="16" t="n">
+        <v>1650</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="3">
@@ -2337,7 +2364,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="n">
-        <v>312</v>
+        <v>882</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="3">
@@ -2345,15 +2372,15 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>5</v>
+        <v>683</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="3">
       <c r="B131" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="16" t="n">
-        <v>1070</v>
+      <c r="C131" s="11" t="n">
+        <v>882</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="3">
@@ -2361,7 +2388,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="11" t="n">
-        <v>21</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="3">
@@ -2369,7 +2396,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="11" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="3">
@@ -2377,7 +2404,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="11" t="n">
-        <v>312</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="3">
@@ -2385,15 +2412,15 @@
         <v>134</v>
       </c>
       <c r="C135" s="11" t="n">
-        <v>136</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="3">
       <c r="B136" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="16" t="n">
-        <v>1070</v>
+      <c r="C136" s="11" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="3">
@@ -2401,7 +2428,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="11" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" ht="11" customHeight="true" outlineLevel="3">
@@ -2409,15 +2436,15 @@
         <v>137</v>
       </c>
       <c r="C138" s="11" t="n">
-        <v>70</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="3">
       <c r="B139" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="11" t="n">
-        <v>312</v>
+      <c r="C139" s="16" t="n">
+        <v>1032</v>
       </c>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="3">
@@ -2425,15 +2452,15 @@
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="3">
       <c r="B141" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="16" t="n">
-        <v>1070</v>
+      <c r="C141" s="11" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="142" ht="11" customHeight="true" outlineLevel="3">
@@ -2441,7 +2468,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="11" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="3">
@@ -2449,15 +2476,15 @@
         <v>142</v>
       </c>
       <c r="C143" s="11" t="n">
-        <v>837</v>
+        <v>580</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="3">
       <c r="B144" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="11" t="n">
-        <v>468</v>
+      <c r="C144" s="16" t="n">
+        <v>1032</v>
       </c>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="3">
@@ -2465,7 +2492,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="11" t="n">
-        <v>503</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="3">
@@ -2473,7 +2500,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="11" t="n">
-        <v>312</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="3">
@@ -2481,7 +2508,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="11" t="n">
-        <v>62</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" ht="11" customHeight="true" outlineLevel="3">
@@ -2489,7 +2516,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="11" t="n">
-        <v>504</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="3">
@@ -2497,7 +2524,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="16" t="n">
-        <v>1070</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="3">
@@ -2505,7 +2532,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="3">
@@ -2513,7 +2540,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="11" t="n">
-        <v>376</v>
+        <v>990</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="3">
@@ -2521,7 +2548,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="11" t="n">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="3">
@@ -2529,23 +2556,23 @@
         <v>152</v>
       </c>
       <c r="C153" s="11" t="n">
-        <v>897</v>
+        <v>610</v>
       </c>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="3">
       <c r="B154" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="16" t="n">
-        <v>1070</v>
+      <c r="C154" s="11" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="3">
       <c r="B155" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="16" t="n">
-        <v>2002</v>
+      <c r="C155" s="11" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="3">
@@ -2553,15 +2580,15 @@
         <v>155</v>
       </c>
       <c r="C156" s="11" t="n">
-        <v>312</v>
+        <v>938</v>
       </c>
     </row>
     <row r="157" ht="11" customHeight="true" outlineLevel="3">
       <c r="B157" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="11" t="n">
-        <v>826</v>
+      <c r="C157" s="16" t="n">
+        <v>1032</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="3">
@@ -2569,15 +2596,15 @@
         <v>157</v>
       </c>
       <c r="C158" s="11" t="n">
-        <v>914</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="3">
       <c r="B159" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="16" t="n">
-        <v>1249</v>
+      <c r="C159" s="11" t="n">
+        <v>544</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="3">
@@ -2585,63 +2612,63 @@
         <v>159</v>
       </c>
       <c r="C160" s="11" t="n">
-        <v>204</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="3">
       <c r="B161" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="11" t="n">
-        <v>205</v>
+      <c r="C161" s="16" t="n">
+        <v>1323</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="3">
       <c r="B162" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="11" t="n">
-        <v>192</v>
+      <c r="C162" s="16" t="n">
+        <v>1032</v>
       </c>
     </row>
     <row r="163" ht="11" customHeight="true" outlineLevel="3">
       <c r="B163" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="11" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B164" s="14" t="s">
+      <c r="C163" s="16" t="n">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="164" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B164" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="12" t="n">
-        <v>25348</v>
+      <c r="C164" s="11" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="3">
       <c r="B165" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="11" t="n">
-        <v>3</v>
+      <c r="C165" s="16" t="n">
+        <v>1187</v>
       </c>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="3">
       <c r="B166" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="16" t="n">
-        <v>1144</v>
+      <c r="C166" s="11" t="n">
+        <v>882</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="3">
       <c r="B167" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="11" t="n">
-        <v>316</v>
+      <c r="C167" s="16" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="3">
@@ -2649,7 +2676,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="11" t="n">
-        <v>956</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" ht="11" customHeight="true" outlineLevel="3">
@@ -2657,15 +2684,15 @@
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>303</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170" ht="11" customHeight="true" outlineLevel="3">
       <c r="B170" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="16" t="n">
-        <v>2117</v>
+      <c r="C170" s="11" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="171" ht="11" customHeight="true" outlineLevel="3">
@@ -2673,7 +2700,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="11" t="n">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" ht="11" customHeight="true" outlineLevel="3">
@@ -2681,15 +2708,15 @@
         <v>171</v>
       </c>
       <c r="C172" s="11" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B173" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B173" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="11" t="n">
-        <v>241</v>
+      <c r="C173" s="12" t="n">
+        <v>23479</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="3">
@@ -2697,15 +2724,15 @@
         <v>173</v>
       </c>
       <c r="C174" s="11" t="n">
-        <v>302</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="3">
       <c r="B175" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="11" t="n">
-        <v>157</v>
+      <c r="C175" s="16" t="n">
+        <v>1101</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="3">
@@ -2713,7 +2740,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="11" t="n">
-        <v>619</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="3">
@@ -2721,7 +2748,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="11" t="n">
-        <v>863</v>
+        <v>808</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="3">
@@ -2729,15 +2756,15 @@
         <v>177</v>
       </c>
       <c r="C178" s="11" t="n">
-        <v>946</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" ht="11" customHeight="true" outlineLevel="3">
       <c r="B179" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="11" t="n">
-        <v>431</v>
+      <c r="C179" s="16" t="n">
+        <v>2043</v>
       </c>
     </row>
     <row r="180" ht="11" customHeight="true" outlineLevel="3">
@@ -2745,7 +2772,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="11" t="n">
-        <v>454</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" ht="11" customHeight="true" outlineLevel="3">
@@ -2753,7 +2780,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="11" t="n">
-        <v>111</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" ht="11" customHeight="true" outlineLevel="3">
@@ -2761,7 +2788,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="11" t="n">
-        <v>318</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" ht="11" customHeight="true" outlineLevel="3">
@@ -2769,7 +2796,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="11" t="n">
-        <v>586</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184" ht="11" customHeight="true" outlineLevel="3">
@@ -2777,7 +2804,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="11" t="n">
-        <v>740</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="3">
@@ -2785,23 +2812,23 @@
         <v>184</v>
       </c>
       <c r="C185" s="11" t="n">
-        <v>633</v>
+        <v>592</v>
       </c>
     </row>
     <row r="186" ht="11" customHeight="true" outlineLevel="3">
       <c r="B186" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="16" t="n">
-        <v>1599</v>
+      <c r="C186" s="11" t="n">
+        <v>786</v>
       </c>
     </row>
     <row r="187" ht="11" customHeight="true" outlineLevel="3">
       <c r="B187" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="16" t="n">
-        <v>1770</v>
+      <c r="C187" s="11" t="n">
+        <v>848</v>
       </c>
     </row>
     <row r="188" ht="11" customHeight="true" outlineLevel="3">
@@ -2809,7 +2836,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="11" t="n">
-        <v>999</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="3">
@@ -2817,7 +2844,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="11" t="n">
-        <v>794</v>
+        <v>402</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="3">
@@ -2825,7 +2852,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="11" t="n">
-        <v>870</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="3">
@@ -2833,15 +2860,15 @@
         <v>190</v>
       </c>
       <c r="C191" s="11" t="n">
-        <v>158</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" ht="11" customHeight="true" outlineLevel="3">
       <c r="B192" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="16" t="n">
-        <v>1125</v>
+      <c r="C192" s="11" t="n">
+        <v>577</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="3">
@@ -2849,7 +2876,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="11" t="n">
-        <v>885</v>
+        <v>713</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="3">
@@ -2857,7 +2884,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="11" t="n">
-        <v>813</v>
+        <v>606</v>
       </c>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="3">
@@ -2865,23 +2892,23 @@
         <v>194</v>
       </c>
       <c r="C195" s="16" t="n">
-        <v>1845</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="3">
       <c r="B196" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="11" t="n">
-        <v>509</v>
+      <c r="C196" s="16" t="n">
+        <v>1689</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="3">
       <c r="B197" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="16" t="n">
-        <v>2031</v>
+      <c r="C197" s="11" t="n">
+        <v>955</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="3">
@@ -2889,15 +2916,15 @@
         <v>197</v>
       </c>
       <c r="C198" s="11" t="n">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B199" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="199" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B199" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="12" t="n">
-        <v>3249</v>
+      <c r="C199" s="11" t="n">
+        <v>735</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="3">
@@ -2905,15 +2932,15 @@
         <v>199</v>
       </c>
       <c r="C200" s="11" t="n">
-        <v>665</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="3">
       <c r="B201" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C201" s="11" t="n">
-        <v>8</v>
+      <c r="C201" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="3">
@@ -2921,7 +2948,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>296</v>
+        <v>754</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="3">
@@ -2929,15 +2956,15 @@
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>192</v>
+        <v>715</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="3">
       <c r="B204" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C204" s="11" t="n">
-        <v>523</v>
+      <c r="C204" s="16" t="n">
+        <v>1736</v>
       </c>
     </row>
     <row r="205" ht="11" customHeight="true" outlineLevel="3">
@@ -2945,15 +2972,15 @@
         <v>204</v>
       </c>
       <c r="C205" s="11" t="n">
-        <v>4</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="3">
       <c r="B206" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C206" s="11" t="n">
-        <v>106</v>
+      <c r="C206" s="16" t="n">
+        <v>1871</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="3">
@@ -2961,15 +2988,15 @@
         <v>206</v>
       </c>
       <c r="C207" s="11" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B208" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="208" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B208" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C208" s="11" t="n">
-        <v>166</v>
+      <c r="C208" s="12" t="n">
+        <v>3205</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="3">
@@ -2977,7 +3004,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="11" t="n">
-        <v>115</v>
+        <v>658</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="3">
@@ -2985,7 +3012,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="11" t="n">
-        <v>144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="3">
@@ -2993,7 +3020,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="11" t="n">
-        <v>114</v>
+        <v>287</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="3">
@@ -3001,7 +3028,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="11" t="n">
-        <v>279</v>
+        <v>192</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="3">
@@ -3009,7 +3036,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="11" t="n">
-        <v>37</v>
+        <v>523</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="3">
@@ -3017,7 +3044,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="11" t="n">
-        <v>278</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="3">
@@ -3025,23 +3052,23 @@
         <v>214</v>
       </c>
       <c r="C215" s="11" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="216" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B216" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="216" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B216" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C216" s="12" t="n">
-        <v>11024</v>
-      </c>
-    </row>
-    <row r="217" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C216" s="11" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="217" ht="11" customHeight="true" outlineLevel="3">
       <c r="B217" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C217" s="11" t="n">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="3">
@@ -3049,7 +3076,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="11" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="3">
@@ -3057,7 +3084,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="11" t="n">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="3">
@@ -3065,7 +3092,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="11" t="n">
-        <v>580</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="3">
@@ -3073,7 +3100,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="11" t="n">
-        <v>69</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" ht="11" customHeight="true" outlineLevel="3">
@@ -3081,7 +3108,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="11" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223" ht="11" customHeight="true" outlineLevel="3">
@@ -3089,7 +3116,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="11" t="n">
-        <v>28</v>
+        <v>278</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="3">
@@ -3097,15 +3124,15 @@
         <v>223</v>
       </c>
       <c r="C224" s="11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B225" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B225" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C225" s="11" t="n">
-        <v>144</v>
+      <c r="C225" s="12" t="n">
+        <v>11911</v>
       </c>
     </row>
     <row r="226" ht="22" customHeight="true" outlineLevel="3">
@@ -3113,50 +3140,50 @@
         <v>225</v>
       </c>
       <c r="C226" s="11" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="227" ht="22" customHeight="true" outlineLevel="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="227" ht="11" customHeight="true" outlineLevel="3">
       <c r="B227" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" ht="22" customHeight="true" outlineLevel="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="228" ht="11" customHeight="true" outlineLevel="3">
       <c r="B228" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C228" s="11" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="229" ht="22" customHeight="true" outlineLevel="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="229" ht="11" customHeight="true" outlineLevel="3">
       <c r="B229" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="230" ht="22" customHeight="true" outlineLevel="3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="230" ht="11" customHeight="true" outlineLevel="3">
       <c r="B230" s="15" t="s">
         <v>229</v>
       </c>
       <c r="C230" s="11" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="231" ht="22" customHeight="true" outlineLevel="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="231" ht="11" customHeight="true" outlineLevel="3">
       <c r="B231" s="15" t="s">
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="232" ht="22" customHeight="true" outlineLevel="3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="232" ht="11" customHeight="true" outlineLevel="3">
       <c r="B232" s="15" t="s">
         <v>231</v>
       </c>
@@ -3164,12 +3191,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" ht="22" customHeight="true" outlineLevel="3">
+    <row r="233" ht="11" customHeight="true" outlineLevel="3">
       <c r="B233" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="234" ht="22" customHeight="true" outlineLevel="3">
@@ -3177,79 +3204,79 @@
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="235" ht="11" customHeight="true" outlineLevel="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" ht="22" customHeight="true" outlineLevel="3">
       <c r="B235" s="15" t="s">
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="236" ht="11" customHeight="true" outlineLevel="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" ht="22" customHeight="true" outlineLevel="3">
       <c r="B236" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C236" s="11" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="237" ht="11" customHeight="true" outlineLevel="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" ht="22" customHeight="true" outlineLevel="3">
       <c r="B237" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C237" s="11" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="238" ht="11" customHeight="true" outlineLevel="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="238" ht="22" customHeight="true" outlineLevel="3">
       <c r="B238" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C238" s="11" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="239" ht="11" customHeight="true" outlineLevel="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="239" ht="22" customHeight="true" outlineLevel="3">
       <c r="B239" s="15" t="s">
         <v>238</v>
       </c>
       <c r="C239" s="11" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="240" ht="11" customHeight="true" outlineLevel="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="240" ht="22" customHeight="true" outlineLevel="3">
       <c r="B240" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C240" s="16" t="n">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="241" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C240" s="11" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" ht="22" customHeight="true" outlineLevel="3">
       <c r="B241" s="15" t="s">
         <v>240</v>
       </c>
       <c r="C241" s="11" t="n">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="242" ht="11" customHeight="true" outlineLevel="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" ht="22" customHeight="true" outlineLevel="3">
       <c r="B242" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C242" s="11" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="243" ht="11" customHeight="true" outlineLevel="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" ht="22" customHeight="true" outlineLevel="3">
       <c r="B243" s="15" t="s">
         <v>242</v>
       </c>
       <c r="C243" s="11" t="n">
-        <v>446</v>
+        <v>123</v>
       </c>
     </row>
     <row r="244" ht="11" customHeight="true" outlineLevel="3">
@@ -3257,7 +3284,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="11" t="n">
-        <v>28</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" ht="11" customHeight="true" outlineLevel="3">
@@ -3265,7 +3292,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="11" t="n">
-        <v>126</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" ht="11" customHeight="true" outlineLevel="3">
@@ -3273,47 +3300,47 @@
         <v>245</v>
       </c>
       <c r="C246" s="11" t="n">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247" ht="11" customHeight="true" outlineLevel="3">
       <c r="B247" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C247" s="16" t="n">
-        <v>2275</v>
+      <c r="C247" s="11" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="248" ht="11" customHeight="true" outlineLevel="3">
       <c r="B248" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C248" s="16" t="n">
-        <v>1385</v>
+      <c r="C248" s="11" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="249" ht="11" customHeight="true" outlineLevel="3">
       <c r="B249" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C249" s="11" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="250" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C249" s="16" t="n">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="250" ht="11" customHeight="true" outlineLevel="3">
       <c r="B250" s="15" t="s">
         <v>249</v>
       </c>
       <c r="C250" s="11" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="251" ht="22" customHeight="true" outlineLevel="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="251" ht="11" customHeight="true" outlineLevel="3">
       <c r="B251" s="15" t="s">
         <v>250</v>
       </c>
       <c r="C251" s="11" t="n">
-        <v>4</v>
+        <v>477</v>
       </c>
     </row>
     <row r="252" ht="11" customHeight="true" outlineLevel="3">
@@ -3321,7 +3348,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="11" t="n">
-        <v>77</v>
+        <v>586</v>
       </c>
     </row>
     <row r="253" ht="11" customHeight="true" outlineLevel="3">
@@ -3329,15 +3356,15 @@
         <v>252</v>
       </c>
       <c r="C253" s="11" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="254" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B254" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="254" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B254" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C254" s="12" t="n">
-        <v>20377</v>
+      <c r="C254" s="11" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="255" ht="11" customHeight="true" outlineLevel="3">
@@ -3345,15 +3372,15 @@
         <v>254</v>
       </c>
       <c r="C255" s="11" t="n">
-        <v>294</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" ht="11" customHeight="true" outlineLevel="3">
       <c r="B256" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C256" s="11" t="n">
-        <v>873</v>
+      <c r="C256" s="16" t="n">
+        <v>1553</v>
       </c>
     </row>
     <row r="257" ht="11" customHeight="true" outlineLevel="3">
@@ -3361,7 +3388,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="16" t="n">
-        <v>1786</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="258" ht="11" customHeight="true" outlineLevel="3">
@@ -3369,23 +3396,23 @@
         <v>257</v>
       </c>
       <c r="C258" s="11" t="n">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="259" ht="11" customHeight="true" outlineLevel="3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="259" ht="22" customHeight="true" outlineLevel="3">
       <c r="B259" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C259" s="11" t="n">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="260" ht="11" customHeight="true" outlineLevel="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="260" ht="22" customHeight="true" outlineLevel="3">
       <c r="B260" s="15" t="s">
         <v>259</v>
       </c>
       <c r="C260" s="11" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" ht="11" customHeight="true" outlineLevel="3">
@@ -3393,7 +3420,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="11" t="n">
-        <v>422</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" ht="11" customHeight="true" outlineLevel="3">
@@ -3401,23 +3428,23 @@
         <v>261</v>
       </c>
       <c r="C262" s="11" t="n">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="263" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B263" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="263" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B263" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C263" s="11" t="n">
-        <v>696</v>
+      <c r="C263" s="12" t="n">
+        <v>15656</v>
       </c>
     </row>
     <row r="264" ht="11" customHeight="true" outlineLevel="3">
       <c r="B264" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C264" s="16" t="n">
-        <v>1202</v>
+      <c r="C264" s="11" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="265" ht="11" customHeight="true" outlineLevel="3">
@@ -3425,23 +3452,23 @@
         <v>264</v>
       </c>
       <c r="C265" s="11" t="n">
-        <v>394</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" ht="11" customHeight="true" outlineLevel="3">
       <c r="B266" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C266" s="11" t="n">
-        <v>576</v>
+      <c r="C266" s="16" t="n">
+        <v>1096</v>
       </c>
     </row>
     <row r="267" ht="11" customHeight="true" outlineLevel="3">
       <c r="B267" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="16" t="n">
-        <v>1001</v>
+      <c r="C267" s="11" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="268" ht="11" customHeight="true" outlineLevel="3">
@@ -3449,23 +3476,23 @@
         <v>267</v>
       </c>
       <c r="C268" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="269" ht="22" customHeight="true" outlineLevel="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="269" ht="11" customHeight="true" outlineLevel="3">
       <c r="B269" s="15" t="s">
         <v>268</v>
       </c>
       <c r="C269" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" ht="22" customHeight="true" outlineLevel="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="270" ht="11" customHeight="true" outlineLevel="3">
       <c r="B270" s="15" t="s">
         <v>269</v>
       </c>
       <c r="C270" s="11" t="n">
-        <v>1</v>
+        <v>378</v>
       </c>
     </row>
     <row r="271" ht="11" customHeight="true" outlineLevel="3">
@@ -3473,7 +3500,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="11" t="n">
-        <v>140</v>
+        <v>526</v>
       </c>
     </row>
     <row r="272" ht="11" customHeight="true" outlineLevel="3">
@@ -3481,23 +3508,23 @@
         <v>271</v>
       </c>
       <c r="C272" s="11" t="n">
-        <v>97</v>
+        <v>612</v>
       </c>
     </row>
     <row r="273" ht="11" customHeight="true" outlineLevel="3">
       <c r="B273" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C273" s="11" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="274" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C273" s="16" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="274" ht="11" customHeight="true" outlineLevel="3">
       <c r="B274" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C274" s="11" t="n">
-        <v>1</v>
+        <v>314</v>
       </c>
     </row>
     <row r="275" ht="11" customHeight="true" outlineLevel="3">
@@ -3505,39 +3532,39 @@
         <v>274</v>
       </c>
       <c r="C275" s="11" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="276" ht="22" customHeight="true" outlineLevel="3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="276" ht="11" customHeight="true" outlineLevel="3">
       <c r="B276" s="15" t="s">
         <v>275</v>
       </c>
       <c r="C276" s="11" t="n">
-        <v>1</v>
+        <v>935</v>
       </c>
     </row>
     <row r="277" ht="11" customHeight="true" outlineLevel="3">
       <c r="B277" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C277" s="16" t="n">
-        <v>7994</v>
-      </c>
-    </row>
-    <row r="278" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C277" s="11" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="278" ht="22" customHeight="true" outlineLevel="3">
       <c r="B278" s="15" t="s">
         <v>277</v>
       </c>
       <c r="C278" s="11" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="279" ht="11" customHeight="true" outlineLevel="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" ht="22" customHeight="true" outlineLevel="3">
       <c r="B279" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C279" s="16" t="n">
-        <v>1021</v>
+      <c r="C279" s="11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280" ht="11" customHeight="true" outlineLevel="3">
@@ -3545,7 +3572,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="11" t="n">
-        <v>897</v>
+        <v>124</v>
       </c>
     </row>
     <row r="281" ht="11" customHeight="true" outlineLevel="3">
@@ -3553,23 +3580,23 @@
         <v>280</v>
       </c>
       <c r="C281" s="11" t="n">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="282" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B282" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="282" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B282" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="17" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="283" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C282" s="11" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" ht="22" customHeight="true" outlineLevel="3">
       <c r="B283" s="15" t="s">
         <v>282</v>
       </c>
       <c r="C283" s="11" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" ht="11" customHeight="true" outlineLevel="3">
@@ -3577,23 +3604,23 @@
         <v>283</v>
       </c>
       <c r="C284" s="11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" ht="11" customHeight="true" outlineLevel="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="285" ht="22" customHeight="true" outlineLevel="3">
       <c r="B285" s="15" t="s">
         <v>284</v>
       </c>
       <c r="C285" s="11" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" ht="11" customHeight="true" outlineLevel="3">
       <c r="B286" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C286" s="11" t="n">
-        <v>12</v>
+      <c r="C286" s="16" t="n">
+        <v>6038</v>
       </c>
     </row>
     <row r="287" ht="11" customHeight="true" outlineLevel="3">
@@ -3601,15 +3628,15 @@
         <v>286</v>
       </c>
       <c r="C287" s="11" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="288" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B288" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B288" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C288" s="12" t="n">
-        <v>89909</v>
+      <c r="C288" s="11" t="n">
+        <v>633</v>
       </c>
     </row>
     <row r="289" ht="11" customHeight="true" outlineLevel="3">
@@ -3617,7 +3644,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="11" t="n">
-        <v>270</v>
+        <v>798</v>
       </c>
     </row>
     <row r="290" ht="11" customHeight="true" outlineLevel="3">
@@ -3625,47 +3652,47 @@
         <v>289</v>
       </c>
       <c r="C290" s="11" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="291" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B291" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="291" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B291" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C291" s="11" t="n">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="292" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C291" s="17" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="292" ht="11" customHeight="true" outlineLevel="3">
       <c r="B292" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C292" s="16" t="n">
-        <v>5631</v>
-      </c>
-    </row>
-    <row r="293" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C292" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" ht="11" customHeight="true" outlineLevel="3">
       <c r="B293" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C293" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="294" ht="22" customHeight="true" outlineLevel="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" ht="11" customHeight="true" outlineLevel="3">
       <c r="B294" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C294" s="16" t="n">
-        <v>6409</v>
-      </c>
-    </row>
-    <row r="295" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C294" s="11" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="295" ht="11" customHeight="true" outlineLevel="3">
       <c r="B295" s="15" t="s">
         <v>294</v>
       </c>
       <c r="C295" s="11" t="n">
-        <v>230</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" ht="11" customHeight="true" outlineLevel="3">
@@ -3673,15 +3700,15 @@
         <v>295</v>
       </c>
       <c r="C296" s="11" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="297" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B297" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="297" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B297" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C297" s="11" t="n">
-        <v>229</v>
+      <c r="C297" s="12" t="n">
+        <v>87943</v>
       </c>
     </row>
     <row r="298" ht="11" customHeight="true" outlineLevel="3">
@@ -3689,7 +3716,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="11" t="n">
-        <v>20</v>
+        <v>211</v>
       </c>
     </row>
     <row r="299" ht="11" customHeight="true" outlineLevel="3">
@@ -3697,31 +3724,31 @@
         <v>298</v>
       </c>
       <c r="C299" s="11" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="300" ht="11" customHeight="true" outlineLevel="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="300" ht="22" customHeight="true" outlineLevel="3">
       <c r="B300" s="15" t="s">
         <v>299</v>
       </c>
       <c r="C300" s="11" t="n">
-        <v>110</v>
+        <v>813</v>
       </c>
     </row>
     <row r="301" ht="22" customHeight="true" outlineLevel="3">
       <c r="B301" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C301" s="11" t="n">
-        <v>906</v>
+      <c r="C301" s="16" t="n">
+        <v>5531</v>
       </c>
     </row>
     <row r="302" ht="22" customHeight="true" outlineLevel="3">
       <c r="B302" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C302" s="16" t="n">
-        <v>1622</v>
+      <c r="C302" s="11" t="n">
+        <v>545</v>
       </c>
     </row>
     <row r="303" ht="22" customHeight="true" outlineLevel="3">
@@ -3729,7 +3756,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="16" t="n">
-        <v>13595</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="304" ht="22" customHeight="true" outlineLevel="3">
@@ -3737,47 +3764,47 @@
         <v>303</v>
       </c>
       <c r="C304" s="11" t="n">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="305" ht="22" customHeight="true" outlineLevel="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="305" ht="11" customHeight="true" outlineLevel="3">
       <c r="B305" s="15" t="s">
         <v>304</v>
       </c>
       <c r="C305" s="11" t="n">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="306" ht="22" customHeight="true" outlineLevel="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="306" ht="11" customHeight="true" outlineLevel="3">
       <c r="B306" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C306" s="16" t="n">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="307" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C306" s="11" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="307" ht="11" customHeight="true" outlineLevel="3">
       <c r="B307" s="15" t="s">
         <v>306</v>
       </c>
       <c r="C307" s="11" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="308" ht="22" customHeight="true" outlineLevel="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" ht="11" customHeight="true" outlineLevel="3">
       <c r="B308" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C308" s="16" t="n">
-        <v>11306</v>
-      </c>
-    </row>
-    <row r="309" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C308" s="11" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="309" ht="11" customHeight="true" outlineLevel="3">
       <c r="B309" s="15" t="s">
         <v>308</v>
       </c>
       <c r="C309" s="11" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="310" ht="22" customHeight="true" outlineLevel="3">
@@ -3785,87 +3812,87 @@
         <v>309</v>
       </c>
       <c r="C310" s="11" t="n">
-        <v>240</v>
+        <v>904</v>
       </c>
     </row>
     <row r="311" ht="22" customHeight="true" outlineLevel="3">
       <c r="B311" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C311" s="11" t="n">
-        <v>954</v>
+      <c r="C311" s="16" t="n">
+        <v>1575</v>
       </c>
     </row>
     <row r="312" ht="22" customHeight="true" outlineLevel="3">
       <c r="B312" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C312" s="11" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="313" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C312" s="16" t="n">
+        <v>13461</v>
+      </c>
+    </row>
+    <row r="313" ht="22" customHeight="true" outlineLevel="3">
       <c r="B313" s="15" t="s">
         <v>312</v>
       </c>
       <c r="C313" s="11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" ht="11" customHeight="true" outlineLevel="3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="314" ht="22" customHeight="true" outlineLevel="3">
       <c r="B314" s="15" t="s">
         <v>313</v>
       </c>
       <c r="C314" s="11" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="315" ht="11" customHeight="true" outlineLevel="3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="315" ht="22" customHeight="true" outlineLevel="3">
       <c r="B315" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C315" s="11" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="316" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C315" s="16" t="n">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="316" ht="22" customHeight="true" outlineLevel="3">
       <c r="B316" s="15" t="s">
         <v>315</v>
       </c>
       <c r="C316" s="11" t="n">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="317" ht="11" customHeight="true" outlineLevel="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="317" ht="22" customHeight="true" outlineLevel="3">
       <c r="B317" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C317" s="11" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="318" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C317" s="16" t="n">
+        <v>11190</v>
+      </c>
+    </row>
+    <row r="318" ht="22" customHeight="true" outlineLevel="3">
       <c r="B318" s="15" t="s">
         <v>317</v>
       </c>
       <c r="C318" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="319" ht="11" customHeight="true" outlineLevel="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="319" ht="22" customHeight="true" outlineLevel="3">
       <c r="B319" s="15" t="s">
         <v>318</v>
       </c>
       <c r="C319" s="11" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="320" ht="11" customHeight="true" outlineLevel="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="320" ht="22" customHeight="true" outlineLevel="3">
       <c r="B320" s="15" t="s">
         <v>319</v>
       </c>
       <c r="C320" s="11" t="n">
-        <v>8</v>
+        <v>686</v>
       </c>
     </row>
     <row r="321" ht="22" customHeight="true" outlineLevel="3">
@@ -3873,39 +3900,39 @@
         <v>320</v>
       </c>
       <c r="C321" s="11" t="n">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="322" ht="22" customHeight="true" outlineLevel="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="322" ht="11" customHeight="true" outlineLevel="3">
       <c r="B322" s="15" t="s">
         <v>321</v>
       </c>
       <c r="C322" s="11" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="323" ht="22" customHeight="true" outlineLevel="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" ht="11" customHeight="true" outlineLevel="3">
       <c r="B323" s="15" t="s">
         <v>322</v>
       </c>
       <c r="C323" s="11" t="n">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="324" ht="22" customHeight="true" outlineLevel="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="324" ht="11" customHeight="true" outlineLevel="3">
       <c r="B324" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C324" s="16" t="n">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="325" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C324" s="11" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" ht="11" customHeight="true" outlineLevel="3">
       <c r="B325" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C325" s="16" t="n">
-        <v>2123</v>
+      <c r="C325" s="11" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="326" ht="11" customHeight="true" outlineLevel="3">
@@ -3913,15 +3940,15 @@
         <v>325</v>
       </c>
       <c r="C326" s="11" t="n">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="327" ht="22" customHeight="true" outlineLevel="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" ht="11" customHeight="true" outlineLevel="3">
       <c r="B327" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C327" s="16" t="n">
-        <v>1146</v>
+      <c r="C327" s="11" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="328" ht="11" customHeight="true" outlineLevel="3">
@@ -3929,7 +3956,7 @@
         <v>327</v>
       </c>
       <c r="C328" s="11" t="n">
-        <v>798</v>
+        <v>69</v>
       </c>
     </row>
     <row r="329" ht="11" customHeight="true" outlineLevel="3">
@@ -3937,7 +3964,7 @@
         <v>328</v>
       </c>
       <c r="C329" s="11" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" ht="22" customHeight="true" outlineLevel="3">
@@ -3945,7 +3972,7 @@
         <v>329</v>
       </c>
       <c r="C330" s="11" t="n">
-        <v>18</v>
+        <v>835</v>
       </c>
     </row>
     <row r="331" ht="22" customHeight="true" outlineLevel="3">
@@ -3953,47 +3980,47 @@
         <v>330</v>
       </c>
       <c r="C331" s="11" t="n">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="332" ht="11" customHeight="true" outlineLevel="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="332" ht="22" customHeight="true" outlineLevel="3">
       <c r="B332" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="C332" s="16" t="n">
-        <v>2488</v>
+      <c r="C332" s="11" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="333" ht="22" customHeight="true" outlineLevel="3">
       <c r="B333" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="334" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C333" s="16" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="334" ht="22" customHeight="true" outlineLevel="3">
       <c r="B334" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C334" s="11" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="335" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C334" s="16" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="335" ht="11" customHeight="true" outlineLevel="3">
       <c r="B335" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C335" s="16" t="n">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="336" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C335" s="11" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="336" ht="22" customHeight="true" outlineLevel="3">
       <c r="B336" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C336" s="11" t="n">
-        <v>30</v>
+      <c r="C336" s="16" t="n">
+        <v>1146</v>
       </c>
     </row>
     <row r="337" ht="11" customHeight="true" outlineLevel="3">
@@ -4001,7 +4028,7 @@
         <v>336</v>
       </c>
       <c r="C337" s="11" t="n">
-        <v>15</v>
+        <v>798</v>
       </c>
     </row>
     <row r="338" ht="11" customHeight="true" outlineLevel="3">
@@ -4009,39 +4036,39 @@
         <v>337</v>
       </c>
       <c r="C338" s="11" t="n">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="339" ht="11" customHeight="true" outlineLevel="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" ht="22" customHeight="true" outlineLevel="3">
       <c r="B339" s="15" t="s">
         <v>338</v>
       </c>
       <c r="C339" s="11" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="340" ht="11" customHeight="true" outlineLevel="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" ht="22" customHeight="true" outlineLevel="3">
       <c r="B340" s="15" t="s">
         <v>339</v>
       </c>
       <c r="C340" s="11" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="341" ht="22" customHeight="true" outlineLevel="3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="341" ht="11" customHeight="true" outlineLevel="3">
       <c r="B341" s="15" t="s">
         <v>340</v>
       </c>
       <c r="C341" s="16" t="n">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="342" ht="11" customHeight="true" outlineLevel="3">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="342" ht="22" customHeight="true" outlineLevel="3">
       <c r="B342" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C342" s="16" t="n">
-        <v>1803</v>
+      <c r="C342" s="11" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="343" ht="11" customHeight="true" outlineLevel="3">
@@ -4049,39 +4076,39 @@
         <v>342</v>
       </c>
       <c r="C343" s="11" t="n">
-        <v>41</v>
+        <v>294</v>
       </c>
     </row>
     <row r="344" ht="22" customHeight="true" outlineLevel="3">
       <c r="B344" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C344" s="11" t="n">
-        <v>841</v>
+      <c r="C344" s="16" t="n">
+        <v>2187</v>
       </c>
     </row>
     <row r="345" ht="11" customHeight="true" outlineLevel="3">
       <c r="B345" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C345" s="16" t="n">
-        <v>1258</v>
+      <c r="C345" s="11" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="346" ht="11" customHeight="true" outlineLevel="3">
       <c r="B346" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C346" s="16" t="n">
-        <v>1540</v>
+      <c r="C346" s="11" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="347" ht="11" customHeight="true" outlineLevel="3">
       <c r="B347" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C347" s="16" t="n">
-        <v>4734</v>
+      <c r="C347" s="11" t="n">
+        <v>613</v>
       </c>
     </row>
     <row r="348" ht="11" customHeight="true" outlineLevel="3">
@@ -4089,7 +4116,7 @@
         <v>347</v>
       </c>
       <c r="C348" s="11" t="n">
-        <v>20</v>
+        <v>169</v>
       </c>
     </row>
     <row r="349" ht="11" customHeight="true" outlineLevel="3">
@@ -4097,39 +4124,39 @@
         <v>348</v>
       </c>
       <c r="C349" s="11" t="n">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="350" ht="11" customHeight="true" outlineLevel="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="350" ht="22" customHeight="true" outlineLevel="3">
       <c r="B350" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C350" s="11" t="n">
-        <v>20</v>
+      <c r="C350" s="16" t="n">
+        <v>3039</v>
       </c>
     </row>
     <row r="351" ht="11" customHeight="true" outlineLevel="3">
       <c r="B351" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C351" s="11" t="n">
-        <v>522</v>
+      <c r="C351" s="16" t="n">
+        <v>1794</v>
       </c>
     </row>
     <row r="352" ht="11" customHeight="true" outlineLevel="3">
       <c r="B352" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C352" s="16" t="n">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="353" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C352" s="11" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="353" ht="22" customHeight="true" outlineLevel="3">
       <c r="B353" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C353" s="16" t="n">
-        <v>5594</v>
+      <c r="C353" s="11" t="n">
+        <v>686</v>
       </c>
     </row>
     <row r="354" ht="11" customHeight="true" outlineLevel="3">
@@ -4137,7 +4164,79 @@
         <v>353</v>
       </c>
       <c r="C354" s="16" t="n">
-        <v>6612</v>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="355" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B355" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C355" s="16" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="356" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B356" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C356" s="16" t="n">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="357" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B357" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C357" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B358" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C358" s="11" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="359" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B359" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C359" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B360" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C360" s="11" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="361" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B361" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C361" s="16" t="n">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="362" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B362" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C362" s="16" t="n">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="363" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B363" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C363" s="16" t="n">
+        <v>6602</v>
       </c>
     </row>
   </sheetData>
